--- a/biology/Botanique/Parakaempferia_synantha/Parakaempferia_synantha.xlsx
+++ b/biology/Botanique/Parakaempferia_synantha/Parakaempferia_synantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Parakaempferia synantha est une espèce de plantes à fleurs de la famille des Zingiberaceae.
-C'est l'unique espèce du genre Parakaempferia[1],[2]
-Elle est originaire d'Assam et d'Inde[3].
+C'est l'unique espèce du genre Parakaempferia,
+Elle est originaire d'Assam et d'Inde.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit par A.S.Rao &amp; D.M.Verma et publié dans le Bulletin of the Botanical Survey of India 11: 206. 1971. L'espèce a été accepté dans le même ouvrage[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par A.S.Rao &amp; D.M.Verma et publié dans le Bulletin of the Botanical Survey of India 11: 206. 1971. L'espèce a été accepté dans le même ouvrage.
 </t>
         </is>
       </c>
